--- a/Agenda/Big_Data_Workshop_Agenda.xlsx
+++ b/Agenda/Big_Data_Workshop_Agenda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Big_Data_Workshop\Agenda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Big_Data_Workshop\Big_Data_Workshop\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E53047-590E-497E-B669-5326DC025CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C6B310-77EA-4FF6-B99C-E4B68A0AA7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7EF2AC1-3523-4440-9108-22254ACBA319}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
   <si>
     <t>Staff Training for Practical Machine Learning</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Date: Thrusday, 30 September 2021</t>
   </si>
   <si>
-    <t>Intro-to-pandas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Background on data engineering </t>
   </si>
   <si>
@@ -115,6 +112,27 @@
   </si>
   <si>
     <t>Overview of Data Engineering components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB Installtion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL DataBase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Lab Work </t>
+  </si>
+  <si>
+    <t>NOSQL Database</t>
+  </si>
+  <si>
+    <t>Introduction to Big Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSQL Lab Work </t>
   </si>
 </sst>
 </file>
@@ -321,34 +339,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921061D0-B6C7-4FB2-83F7-2969C3506501}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -685,28 +703,28 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -716,10 +734,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -789,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
@@ -829,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
@@ -849,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>8</v>
@@ -889,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -909,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>8</v>
@@ -926,18 +944,18 @@
     </row>
     <row r="15" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
@@ -947,10 +965,10 @@
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
@@ -960,19 +978,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" s="9">
         <v>0.375</v>
       </c>
       <c r="E18" s="9">
-        <v>0.38541666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F18" s="10">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -980,21 +998,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="9">
-        <f>E18</f>
-        <v>0.38541666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E19" s="9">
-        <f>D19+I16</f>
-        <v>0.38541666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="F19" s="10">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1005,18 +1021,16 @@
         <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="9">
-        <f>E19</f>
-        <v>0.38541666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E20" s="9">
-        <f>D20+I14</f>
-        <v>0.38541666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F20" s="10">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1024,18 +1038,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ref="D21:D25" si="0">E20</f>
-        <v>0.38541666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E21" s="9">
-        <f>D21+I16+I15</f>
-        <v>0.38541666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F21" s="10">
         <v>90</v>
@@ -1052,12 +1064,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.38541666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E22" s="9">
-        <f>D22+I16</f>
-        <v>0.38541666666666669</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F22" s="10">
         <v>60</v>
@@ -1068,18 +1078,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="9">
-        <f>E22</f>
-        <v>0.38541666666666669</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E23" s="9">
-        <f>D23+I16</f>
-        <v>0.38541666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F23" s="10">
         <v>60</v>
@@ -1090,18 +1098,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="9">
-        <f>E23</f>
-        <v>0.38541666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="E24" s="9">
-        <f>D24+I15</f>
-        <v>0.38541666666666669</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F24" s="10">
         <v>30</v>
@@ -1115,15 +1121,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.38541666666666669</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="9">
-        <f>D25+I15</f>
-        <v>0.38541666666666669</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F25" s="10">
         <v>30</v>
@@ -1134,18 +1138,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="9">
-        <f>E25</f>
-        <v>0.38541666666666669</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E26" s="9">
-        <f>D26+I15</f>
-        <v>0.38541666666666669</v>
+        <v>0.65625</v>
       </c>
       <c r="F26" s="10">
         <v>30</v>
@@ -1156,18 +1158,16 @@
         <v>10</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="9">
-        <f>E26</f>
-        <v>0.38541666666666669</v>
+        <v>0.65625</v>
       </c>
       <c r="E27" s="9">
-        <f>D27+I16</f>
-        <v>0.38541666666666669</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="F27" s="10">
         <v>60</v>
@@ -1175,18 +1175,18 @@
     </row>
     <row r="28" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
@@ -1196,10 +1196,10 @@
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34:D38" si="1">E33</f>
+        <f t="shared" ref="D34:D38" si="0">E33</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="E34" s="9">
@@ -1301,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="E35" s="9">
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="E38" s="9">
@@ -1424,18 +1424,18 @@
     </row>
     <row r="41" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="14"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
@@ -1445,10 +1445,10 @@
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="5" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" ref="D47:D51" si="2">E46</f>
+        <f t="shared" ref="D47:D51" si="1">E46</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="E47" s="9">
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="E48" s="9">
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="E51" s="9">
@@ -1673,12 +1673,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A29:B29"/>
@@ -1686,6 +1680,12 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Agenda/Big_Data_Workshop_Agenda.xlsx
+++ b/Agenda/Big_Data_Workshop_Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Big_Data_Workshop\Big_Data_Workshop\Agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C6B310-77EA-4FF6-B99C-E4B68A0AA7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B662A8C-7F29-4FD0-98B4-FAB8B94AD952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7EF2AC1-3523-4440-9108-22254ACBA319}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>Staff Training for Practical Machine Learning</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t xml:space="preserve">NOSQL Lab Work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Integration </t>
+  </si>
+  <si>
+    <t>Pentaho</t>
+  </si>
+  <si>
+    <t>Big Data &amp; Hadoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play with Spark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment </t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
@@ -339,6 +357,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,27 +385,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -685,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921061D0-B6C7-4FB2-83F7-2969C3506501}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -703,28 +721,28 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
@@ -734,10 +752,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -944,18 +962,18 @@
     </row>
     <row r="15" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
@@ -965,10 +983,10 @@
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1175,18 +1193,18 @@
     </row>
     <row r="28" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
@@ -1196,10 +1214,10 @@
       <c r="C30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1424,18 +1442,18 @@
     </row>
     <row r="41" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="1:6" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
@@ -1445,10 +1463,10 @@
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="5" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>8</v>
@@ -1467,10 +1485,10 @@
         <v>0.375</v>
       </c>
       <c r="E44" s="9">
-        <v>0.38541666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F44" s="10">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1478,21 +1496,19 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="9">
-        <f>E44</f>
-        <v>0.38541666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E45" s="9">
-        <f>D45+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="F45" s="10">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1506,15 +1522,13 @@
         <v>8</v>
       </c>
       <c r="D46" s="9">
-        <f>E45</f>
-        <v>0.38541666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E46" s="9">
-        <f>D46+I40</f>
-        <v>0.38541666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="F46" s="10">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1522,18 +1536,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" ref="D47:D51" si="1">E46</f>
-        <v>0.38541666666666669</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E47" s="9">
-        <f>D47+I42+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F47" s="10">
         <v>90</v>
@@ -1550,12 +1562,10 @@
         <v>8</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E48" s="9">
-        <f>D48+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F48" s="10">
         <v>60</v>
@@ -1566,18 +1576,16 @@
         <v>6</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="9">
-        <f>E48</f>
-        <v>0.38541666666666669</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E49" s="9">
-        <f>D49+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="F49" s="10">
         <v>60</v>
@@ -1588,18 +1596,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="9">
-        <f>E49</f>
-        <v>0.38541666666666669</v>
+        <v>0.59375</v>
       </c>
       <c r="E50" s="9">
-        <f>D50+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="F50" s="10">
         <v>30</v>
@@ -1616,12 +1622,10 @@
         <v>8</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="1"/>
-        <v>0.38541666666666669</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E51" s="9">
-        <f>D51+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="F51" s="10">
         <v>30</v>
@@ -1632,18 +1636,16 @@
         <v>9</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="9">
-        <f>E51</f>
-        <v>0.38541666666666669</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E52" s="9">
-        <f>D52+I41</f>
-        <v>0.38541666666666669</v>
+        <v>0.65625</v>
       </c>
       <c r="F52" s="10">
         <v>30</v>
@@ -1654,18 +1656,16 @@
         <v>10</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="9">
-        <f>E52</f>
-        <v>0.38541666666666669</v>
+        <v>0.65625</v>
       </c>
       <c r="E53" s="9">
-        <f>D53+I42</f>
-        <v>0.38541666666666669</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="F53" s="10">
         <v>60</v>
@@ -1673,6 +1673,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A29:B29"/>
@@ -1680,12 +1686,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
